--- a/Src/lbm/Modele/VolumeDeLaBaseStorProd.xlsx
+++ b/Src/lbm/Modele/VolumeDeLaBaseStorProd.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LBM\20171030\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="VolumeDeLaBaseStorProd" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VolumeDeLaBaseStorProd!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -150,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -670,11 +665,11 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -742,7 +737,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -777,7 +772,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -954,7 +949,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -965,19 +960,19 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -994,7 +989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43030</v>
       </c>
@@ -1008,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43030</v>
       </c>
@@ -1022,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43030</v>
       </c>
@@ -1040,7 +1035,7 @@
         <v>22659072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43030</v>
       </c>
@@ -1058,7 +1053,7 @@
         <v>557850624</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43030</v>
       </c>
@@ -1072,7 +1067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43030</v>
       </c>
@@ -1086,7 +1081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43030</v>
       </c>
@@ -1104,7 +1099,7 @@
         <v>314574336</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43030</v>
       </c>
@@ -1118,7 +1113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43030</v>
       </c>
@@ -1132,7 +1127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43030</v>
       </c>
@@ -1146,7 +1141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43030</v>
       </c>
@@ -1160,7 +1155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43030</v>
       </c>
@@ -1174,7 +1169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43030</v>
       </c>
@@ -1188,7 +1183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43030</v>
       </c>
@@ -1202,7 +1197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43030</v>
       </c>
@@ -1216,7 +1211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43030</v>
       </c>
@@ -1230,7 +1225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43030</v>
       </c>
@@ -1244,7 +1239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43030</v>
       </c>
@@ -1258,7 +1253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43030</v>
       </c>
@@ -1283,7 +1278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43030</v>
       </c>
@@ -1297,7 +1292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43030</v>
       </c>
@@ -1311,7 +1306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43030</v>
       </c>
@@ -1325,7 +1320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43030</v>
       </c>
@@ -1339,7 +1334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43030</v>
       </c>
@@ -1353,7 +1348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43030</v>
       </c>
@@ -1378,7 +1373,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43038</v>
       </c>
@@ -1392,7 +1387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43030</v>
       </c>
@@ -1410,7 +1405,7 @@
         <v>2147500032</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43038</v>
       </c>
@@ -1424,7 +1419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43038</v>
       </c>
@@ -1442,7 +1437,7 @@
         <v>8726265856</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43030</v>
       </c>
@@ -1456,7 +1451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43030</v>
       </c>
@@ -1474,7 +1469,7 @@
         <v>34475081728</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43030</v>
       </c>
@@ -1492,7 +1487,7 @@
         <v>5251072</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1504,7 +1499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" s="6">
         <f>C36/1024/1024</f>
         <v>142370.79833984375</v>
@@ -1513,7 +1508,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" s="6">
         <f>C36/1024/1024/1024</f>
         <v>139.03398275375366</v>
